--- a/Scedule_Hite.xlsx
+++ b/Scedule_Hite.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Hite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Spring2018_ProjectPlus\Spring2018_ProjectPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD59831-4451-4F9D-824D-06300820AD22}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,18 +58,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -101,14 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,26 +382,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q72" sqref="Q72"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43167</v>
       </c>
@@ -468,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43168</v>
       </c>
@@ -500,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43169</v>
       </c>
@@ -532,50 +526,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
+    <row r="5" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="3">
         <f>SUM(C1:C4)</f>
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>SUM(D2:D4)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>SUM(E2:E4)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f>SUM(F2:F4)</f>
         <v>13</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>SUM(C5:F5)</f>
         <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="4">
-        <v>7</v>
-      </c>
-      <c r="N5" s="4">
-        <v>7</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="M5" s="3">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3">
+        <v>7</v>
+      </c>
+      <c r="O5" s="3">
         <v>14</v>
       </c>
-      <c r="P5" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="P5" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="3">
         <v>35</v>
       </c>
       <c r="R5">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43170</v>
       </c>
@@ -607,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43171</v>
       </c>
@@ -639,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43172</v>
       </c>
@@ -647,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -658,137 +652,137 @@
       <c r="K8" s="1">
         <v>43172</v>
       </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43173</v>
       </c>
       <c r="K9" s="1">
         <v>43173</v>
       </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43174</v>
       </c>
       <c r="K10" s="1">
         <v>43174</v>
       </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43175</v>
       </c>
       <c r="K11" s="1">
         <v>43175</v>
       </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>2</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43176</v>
       </c>
       <c r="K12" s="1">
         <v>43176</v>
       </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="4">
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="3">
         <f>SUM(C6:C12)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>SUM(D6:D12)</f>
-        <v>2.5</v>
-      </c>
-      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
         <f>SUM(E6:E12)</f>
         <v>8</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f>SUM(F6:F12)</f>
         <v>1.5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f>SUM(C13:F13)</f>
-        <v>17</v>
-      </c>
-      <c r="M13" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="M13" s="3">
         <f>SUM(M6:M12)</f>
         <v>7</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f>SUM(N6:N12)</f>
         <v>7</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f>SUM(O6:O12)</f>
         <v>14</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <f>SUM(P6:P12)</f>
         <v>7</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <f>SUM(M13:P13)</f>
         <v>35</v>
       </c>
@@ -796,184 +790,184 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43177</v>
       </c>
       <c r="K14" s="1">
         <v>43177</v>
       </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43178</v>
       </c>
       <c r="K15" s="1">
         <v>43178</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" s="3">
-        <v>2</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43179</v>
       </c>
       <c r="K16" s="1">
         <v>43179</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>1</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16" s="3">
-        <v>2</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43180</v>
       </c>
       <c r="K17" s="1">
         <v>43180</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>1</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" s="3">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43181</v>
       </c>
       <c r="K18" s="1">
         <v>43181</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>1</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" s="3">
-        <v>2</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43182</v>
       </c>
       <c r="K19" s="1">
         <v>43182</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>1</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" s="3">
-        <v>2</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="2">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43183</v>
       </c>
       <c r="K20" s="1">
         <v>43183</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>1</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" s="3">
-        <v>2</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="4">
+      <c r="O20" s="2">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="3">
         <f>SUM(C14:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f>SUM(D14:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f>SUM(E14:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f>SUM(F14:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f>SUM(C21:F21)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <f>SUM(M14:M20)</f>
         <v>7</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <f>SUM(N14:N20)</f>
         <v>7</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <f>SUM(O14:O20)</f>
         <v>14</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <f>SUM(P14:P20)</f>
         <v>7</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <f>SUM(M21:P21)</f>
         <v>35</v>
       </c>
@@ -981,184 +975,184 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43184</v>
       </c>
       <c r="K22" s="1">
         <v>43184</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22" s="3">
-        <v>2</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43185</v>
       </c>
       <c r="K23" s="1">
         <v>43185</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
-      <c r="O23" s="3">
-        <v>2</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O23" s="2">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43186</v>
       </c>
       <c r="K24" s="1">
         <v>43186</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" s="3">
-        <v>2</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43187</v>
       </c>
       <c r="K25" s="1">
         <v>43187</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25" s="3">
-        <v>2</v>
-      </c>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="2">
+        <v>2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43188</v>
       </c>
       <c r="K26" s="1">
         <v>43188</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <v>1</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26" s="3">
-        <v>2</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43189</v>
       </c>
       <c r="K27" s="1">
         <v>43189</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>1</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
-      <c r="O27" s="3">
-        <v>2</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O27" s="2">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43190</v>
       </c>
       <c r="K28" s="1">
         <v>43190</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="2">
         <v>1</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
-      <c r="O28" s="3">
-        <v>2</v>
-      </c>
-      <c r="P28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="4">
+      <c r="O28" s="2">
+        <v>2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="3">
         <f>SUM(C22:C28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f>SUM(E22:E28)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f>SUM(C29:F29)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <f>SUM(M22:M28)</f>
         <v>7</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <f>SUM(N22:N28)</f>
         <v>7</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <f>SUM(O22:O28)</f>
         <v>14</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <f>SUM(P22:P28)</f>
         <v>7</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="3">
         <f>SUM(M29:P29)</f>
         <v>35</v>
       </c>
@@ -1166,25 +1160,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
+    <row r="30" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
         <f>SUM(G21,G13,G5)</f>
-        <v>38</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5">
+        <v>44.5</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4">
         <f>SUM(Q21,Q13,Q5)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43191</v>
       </c>
@@ -1204,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43192</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43193</v>
       </c>
@@ -1244,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43194</v>
       </c>
@@ -1264,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43195</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43196</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43197</v>
       </c>
@@ -1324,46 +1318,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f>SUM(C33:C39)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <f>SUM(D33:D39)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <f>SUM(E33:E39)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <f>SUM(F33:F39)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f>SUM(C40:F40)</f>
         <v>0</v>
       </c>
       <c r="K40" s="1"/>
-      <c r="M40" s="4">
+      <c r="M40" s="3">
         <f>SUM(M33:M39)</f>
         <v>7</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <f>SUM(N33:N39)</f>
         <v>7</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <f>SUM(O33:O39)</f>
         <v>14</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="3">
         <f>SUM(P33:P39)</f>
         <v>7</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="3">
         <f>SUM(M40:P40)</f>
         <v>35</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43198</v>
       </c>
@@ -1391,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43199</v>
       </c>
@@ -1411,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43200</v>
       </c>
@@ -1431,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43201</v>
       </c>
@@ -1451,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43202</v>
       </c>
@@ -1471,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43203</v>
       </c>
@@ -1491,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43204</v>
       </c>
@@ -1511,44 +1505,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="4">
+    <row r="48" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="3">
         <f>SUM(C41:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <f>SUM(D41:D47)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <f>SUM(E41:E47)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <f>SUM(F41:F47)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <f>SUM(C48:F48)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="3">
         <f>SUM(M41:M47)</f>
         <v>7</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <f>SUM(N41:N47)</f>
         <v>7</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="3">
         <f>SUM(O41:O47)</f>
         <v>14</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="3">
         <f>SUM(P41:P47)</f>
         <v>7</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="3">
         <f>SUM(M48:P48)</f>
         <v>35</v>
       </c>
@@ -1556,7 +1550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43205</v>
       </c>
@@ -1576,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43206</v>
       </c>
@@ -1596,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43207</v>
       </c>
@@ -1616,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43208</v>
       </c>
@@ -1636,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43209</v>
       </c>
@@ -1656,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43210</v>
       </c>
@@ -1676,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43211</v>
       </c>
@@ -1696,44 +1690,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="4">
+    <row r="56" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="3">
         <f>SUM(C49:C55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <f>SUM(D49:D55)</f>
         <v>0</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <f>SUM(E49:E55)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <f>SUM(C56:F56)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="3">
         <f>SUM(M49:M55)</f>
         <v>7</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="3">
         <f>SUM(N49:N55)</f>
         <v>7</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="3">
         <f>SUM(O49:O55)</f>
         <v>14</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="3">
         <f>SUM(P49:P55)</f>
         <v>7</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="3">
         <f>SUM(M56:P56)</f>
         <v>35</v>
       </c>
@@ -1741,7 +1735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43212</v>
       </c>
@@ -1761,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43213</v>
       </c>
@@ -1781,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43214</v>
       </c>
@@ -1801,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43215</v>
       </c>
@@ -1821,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43216</v>
       </c>
@@ -1841,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43217</v>
       </c>
@@ -1861,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43218</v>
       </c>
@@ -1881,44 +1875,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="4">
+    <row r="64" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="3">
         <f>SUM(C57:C63)</f>
         <v>0</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <f>SUM(D57:D63)</f>
         <v>0</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <f>SUM(E57:E63)</f>
         <v>0</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <f>SUM(F57:F63)</f>
         <v>0</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <f>SUM(C64:F64)</f>
         <v>0</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="3">
         <f>SUM(M57:M63)</f>
         <v>7</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="3">
         <f>SUM(N57:N63)</f>
         <v>7</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="3">
         <f>SUM(O57:O63)</f>
         <v>14</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="3">
         <f>SUM(P57:P63)</f>
         <v>7</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q64" s="3">
         <f>SUM(M64:P64)</f>
         <v>35</v>
       </c>
@@ -1926,7 +1920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43219</v>
       </c>
@@ -1946,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43220</v>
       </c>
@@ -1966,69 +1960,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="4">
+    <row r="67" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="3">
         <f>SUM(C65:C66)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <f>SUM(D65:D66)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <f>SUM(E65:E66)</f>
         <v>0</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <f>SUM(F65:F66)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <f>SUM(C67:F67)</f>
         <v>0</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="3">
         <f>SUM(M65:M66)</f>
         <v>2</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="3">
         <f>SUM(N65:N66)</f>
         <v>2</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O67" s="3">
         <f>SUM(O65:O66)</f>
         <v>4</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="3">
         <f>SUM(P65:P66)</f>
         <v>2</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="3">
         <f>SUM(M67:P67)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4">
         <f>SUM(G64,G56,G48,G40)</f>
         <v>0</v>
       </c>
       <c r="K68" s="1"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5">
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4">
         <f>SUM(Q64,Q56,Q48,Q40)</f>
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43221</v>
       </c>
@@ -2048,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43222</v>
       </c>
@@ -2068,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43223</v>
       </c>
@@ -2088,44 +2082,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="4">
+    <row r="74" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="3">
         <f>SUM(C71:C73)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <f>SUM(D71:D73)</f>
         <v>0</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <f>SUM(E71:E73)</f>
         <v>0</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <f>SUM(F71:F73)</f>
         <v>0</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="3">
         <f>SUM(C74:F74)</f>
         <v>0</v>
       </c>
-      <c r="M74" s="4">
+      <c r="M74" s="3">
         <f>SUM(M71:M73)</f>
         <v>3</v>
       </c>
-      <c r="N74" s="4">
+      <c r="N74" s="3">
         <f>SUM(N71:N73)</f>
         <v>3</v>
       </c>
-      <c r="O74" s="4">
+      <c r="O74" s="3">
         <f>SUM(O71:O73)</f>
         <v>6</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="3">
         <f>SUM(P71:P73)</f>
         <v>3</v>
       </c>
-      <c r="Q74" s="4">
+      <c r="Q74" s="3">
         <f>SUM(M74:P74)</f>
         <v>15</v>
       </c>
@@ -2133,36 +2127,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
       <c r="K75" s="1"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-    </row>
-    <row r="76" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5">
         <f>SUM(G74,G64,G56,G48,G40,G21,G13,G5)</f>
-        <v>38</v>
+        <v>44.5</v>
       </c>
       <c r="K76" s="1"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6">
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5">
         <f>SUM(Q74,Q64,Q56,Q48,Q40,Q21,Q13,Q5)</f>
         <v>260</v>
       </c>
@@ -2171,55 +2165,55 @@
         <v>360</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
     </row>
   </sheetData>

--- a/Scedule_Hite.xlsx
+++ b/Scedule_Hite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Spring2018_ProjectPlus\Spring2018_ProjectPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD59831-4451-4F9D-824D-06300820AD22}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A116033-E75F-44E6-95E2-3DCB25B5EC96}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="1">
         <v>43170</v>
@@ -669,6 +669,18 @@
       <c r="A9" s="1">
         <v>43173</v>
       </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="K9" s="1">
         <v>43173</v>
       </c>
@@ -748,23 +760,23 @@
     <row r="13" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="3">
         <f>SUM(C6:C12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <f>SUM(D6:D12)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(E6:E12)</f>
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="F13" s="3">
         <f>SUM(F6:F12)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
         <f>SUM(C13:F13)</f>
-        <v>23.5</v>
+        <v>32.5</v>
       </c>
       <c r="M13" s="3">
         <f>SUM(M6:M12)</f>
@@ -1167,7 +1179,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4">
         <f>SUM(G21,G13,G5)</f>
-        <v>44.5</v>
+        <v>53.5</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2149,7 +2161,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5">
         <f>SUM(G74,G64,G56,G48,G40,G21,G13,G5)</f>
-        <v>44.5</v>
+        <v>53.5</v>
       </c>
       <c r="K76" s="1"/>
       <c r="M76" s="5"/>
